--- a/Doc/database/tables.xlsx
+++ b/Doc/database/tables.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>Attribuutti</t>
   </si>
@@ -108,10 +108,16 @@
     <t>Oikeudet</t>
   </si>
   <si>
-    <t>Merkkijono, 1 merkki</t>
-  </si>
-  <si>
     <t>Kertoo onko käyttäjä tavallinen käyttäjä vai admin. Voi saada arvon a (= admin) tai t (= tavallinen käyttäjä)</t>
+  </si>
+  <si>
+    <t>Totuusarvo</t>
+  </si>
+  <si>
+    <t>Ehdotus</t>
+  </si>
+  <si>
+    <t>Onko kyseinen drinkki vain ehdotus vai ei. Jos arvo on true, drinkki on vain ehdotus</t>
   </si>
 </sst>
 </file>
@@ -517,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E8:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15:L17"/>
+    <sheetView tabSelected="1" topLeftCell="G8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8:Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,6 +536,7 @@
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="5:17" x14ac:dyDescent="0.25">
@@ -635,10 +642,10 @@
         <v>29</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>9</v>
@@ -659,7 +666,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="5:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O13" s="5" t="s">
         <v>25</v>
       </c>
@@ -670,12 +677,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
+      <c r="O14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
